--- a/natmiOut/OldD4/LR-pairs_lrc2p/Spon2-Itga5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Spon2-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H2">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I2">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J2">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N2">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O2">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P2">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q2">
-        <v>24.91453437053045</v>
+        <v>38.72877029561467</v>
       </c>
       <c r="R2">
-        <v>24.91453437053045</v>
+        <v>348.558932660532</v>
       </c>
       <c r="S2">
-        <v>0.03002430312326724</v>
+        <v>0.03799117126716019</v>
       </c>
       <c r="T2">
-        <v>0.03002430312326724</v>
+        <v>0.04023116430636638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H3">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I3">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J3">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N3">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P3">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q3">
-        <v>44.80813115098704</v>
+        <v>59.67569091041511</v>
       </c>
       <c r="R3">
-        <v>44.80813115098704</v>
+        <v>537.081218193736</v>
       </c>
       <c r="S3">
-        <v>0.05399791511478706</v>
+        <v>0.05853915258756381</v>
       </c>
       <c r="T3">
-        <v>0.05399791511478706</v>
+        <v>0.06199067276826744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H4">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I4">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J4">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N4">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O4">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P4">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q4">
-        <v>19.74585845487168</v>
+        <v>25.88161737546688</v>
       </c>
       <c r="R4">
-        <v>19.74585845487168</v>
+        <v>232.934556379202</v>
       </c>
       <c r="S4">
-        <v>0.02379557373464066</v>
+        <v>0.02538869555829428</v>
       </c>
       <c r="T4">
-        <v>0.02379557373464066</v>
+        <v>0.02688563549007952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H5">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I5">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J5">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N5">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O5">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P5">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q5">
-        <v>32.51116982438776</v>
+        <v>43.74395666320977</v>
       </c>
       <c r="R5">
-        <v>32.51116982438776</v>
+        <v>393.695609968888</v>
       </c>
       <c r="S5">
-        <v>0.03917894684213014</v>
+        <v>0.04291084216746779</v>
       </c>
       <c r="T5">
-        <v>0.03917894684213014</v>
+        <v>0.04544090335156952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.958603627790573</v>
+        <v>1.166127333333333</v>
       </c>
       <c r="H6">
-        <v>0.958603627790573</v>
+        <v>3.498382</v>
       </c>
       <c r="I6">
-        <v>0.1588742452219218</v>
+        <v>0.1795592107679211</v>
       </c>
       <c r="J6">
-        <v>0.1588742452219218</v>
+        <v>0.1849469123397136</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N6">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O6">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P6">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q6">
-        <v>9.856100253213956</v>
+        <v>15.015319671841</v>
       </c>
       <c r="R6">
-        <v>9.856100253213956</v>
+        <v>90.09191803104601</v>
       </c>
       <c r="S6">
-        <v>0.01187750640709672</v>
+        <v>0.01472934918743506</v>
       </c>
       <c r="T6">
-        <v>0.01187750640709672</v>
+        <v>0.01039853642343079</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.51785709451082</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H7">
-        <v>4.51785709451082</v>
+        <v>13.850705</v>
       </c>
       <c r="I7">
-        <v>0.7487673894634199</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J7">
-        <v>0.7487673894634199</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N7">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O7">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P7">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q7">
-        <v>117.4211140028419</v>
+        <v>153.3339619222033</v>
       </c>
       <c r="R7">
-        <v>117.4211140028419</v>
+        <v>1380.00565729983</v>
       </c>
       <c r="S7">
-        <v>0.1415032313051405</v>
+        <v>0.1504136786165468</v>
       </c>
       <c r="T7">
-        <v>0.1415032313051405</v>
+        <v>0.1592822020619847</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.51785709451082</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H8">
-        <v>4.51785709451082</v>
+        <v>13.850705</v>
       </c>
       <c r="I8">
-        <v>0.7487673894634199</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J8">
-        <v>0.7487673894634199</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N8">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P8">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q8">
-        <v>211.1787680992217</v>
+        <v>236.2664770374822</v>
       </c>
       <c r="R8">
-        <v>211.1787680992217</v>
+        <v>2126.39829333734</v>
       </c>
       <c r="S8">
-        <v>0.2544898191679187</v>
+        <v>0.23176672342824</v>
       </c>
       <c r="T8">
-        <v>0.2544898191679187</v>
+        <v>0.2454318943056549</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.51785709451082</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H9">
-        <v>4.51785709451082</v>
+        <v>13.850705</v>
       </c>
       <c r="I9">
-        <v>0.7487673894634199</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J9">
-        <v>0.7487673894634199</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N9">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O9">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P9">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q9">
-        <v>93.06136981054493</v>
+        <v>102.4698409694727</v>
       </c>
       <c r="R9">
-        <v>93.06136981054493</v>
+        <v>922.2285687252548</v>
       </c>
       <c r="S9">
-        <v>0.112147501322088</v>
+        <v>0.1005182774530467</v>
       </c>
       <c r="T9">
-        <v>0.112147501322088</v>
+        <v>0.1064449239421601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.51785709451082</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H10">
-        <v>4.51785709451082</v>
+        <v>13.850705</v>
       </c>
       <c r="I10">
-        <v>0.7487673894634199</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J10">
-        <v>0.7487673894634199</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N10">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O10">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P10">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q10">
-        <v>153.2237256189954</v>
+        <v>173.1899601801355</v>
       </c>
       <c r="R10">
-        <v>153.2237256189954</v>
+        <v>1558.70964162122</v>
       </c>
       <c r="S10">
-        <v>0.1846486679318622</v>
+        <v>0.1698915144667326</v>
       </c>
       <c r="T10">
-        <v>0.1846486679318622</v>
+        <v>0.1799084683308171</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.51785709451082</v>
+        <v>4.616901666666666</v>
       </c>
       <c r="H11">
-        <v>4.51785709451082</v>
+        <v>13.850705</v>
       </c>
       <c r="I11">
-        <v>0.7487673894634199</v>
+        <v>0.7109062584872947</v>
       </c>
       <c r="J11">
-        <v>0.7487673894634199</v>
+        <v>0.7322371094632414</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N11">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O11">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P11">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q11">
-        <v>46.45137068365105</v>
+        <v>59.4482715882275</v>
       </c>
       <c r="R11">
-        <v>46.45137068365105</v>
+        <v>356.689629529365</v>
       </c>
       <c r="S11">
-        <v>0.05597816973641054</v>
+        <v>0.05831606452272873</v>
       </c>
       <c r="T11">
-        <v>0.05597816973641054</v>
+        <v>0.04116962082262458</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.557265048993744</v>
+        <v>0.1437943333333333</v>
       </c>
       <c r="H12">
-        <v>0.557265048993744</v>
+        <v>0.431383</v>
       </c>
       <c r="I12">
-        <v>0.09235836531465817</v>
+        <v>0.02214131876355931</v>
       </c>
       <c r="J12">
-        <v>0.09235836531465817</v>
+        <v>0.02280567241823296</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N12">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O12">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P12">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q12">
-        <v>14.48356631890738</v>
+        <v>4.775617161428666</v>
       </c>
       <c r="R12">
-        <v>14.48356631890738</v>
+        <v>42.98055445285799</v>
       </c>
       <c r="S12">
-        <v>0.01745402819886457</v>
+        <v>0.004684664349045178</v>
       </c>
       <c r="T12">
-        <v>0.01745402819886457</v>
+        <v>0.004960876299950447</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.557265048993744</v>
+        <v>0.1437943333333333</v>
       </c>
       <c r="H13">
-        <v>0.557265048993744</v>
+        <v>0.431383</v>
       </c>
       <c r="I13">
-        <v>0.09235836531465817</v>
+        <v>0.02214131876355931</v>
       </c>
       <c r="J13">
-        <v>0.09235836531465817</v>
+        <v>0.02280567241823296</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N13">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P13">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q13">
-        <v>26.0483109778384</v>
+        <v>7.358567066720445</v>
       </c>
       <c r="R13">
-        <v>26.0483109778384</v>
+        <v>66.227103600484</v>
       </c>
       <c r="S13">
-        <v>0.03139060810916926</v>
+        <v>0.007218421333256643</v>
       </c>
       <c r="T13">
-        <v>0.03139060810916926</v>
+        <v>0.007644025835598716</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.557265048993744</v>
+        <v>0.1437943333333333</v>
       </c>
       <c r="H14">
-        <v>0.557265048993744</v>
+        <v>0.431383</v>
       </c>
       <c r="I14">
-        <v>0.09235836531465817</v>
+        <v>0.02214131876355931</v>
       </c>
       <c r="J14">
-        <v>0.09235836531465817</v>
+        <v>0.02280567241823296</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N14">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O14">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P14">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q14">
-        <v>11.47885993780277</v>
+        <v>3.191443858412555</v>
       </c>
       <c r="R14">
-        <v>11.47885993780277</v>
+        <v>28.72299472571299</v>
       </c>
       <c r="S14">
-        <v>0.01383308093005235</v>
+        <v>0.003130662019191633</v>
       </c>
       <c r="T14">
-        <v>0.01383308093005235</v>
+        <v>0.00331524861910934</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.557265048993744</v>
+        <v>0.1437943333333333</v>
       </c>
       <c r="H15">
-        <v>0.557265048993744</v>
+        <v>0.431383</v>
       </c>
       <c r="I15">
-        <v>0.09235836531465817</v>
+        <v>0.02214131876355931</v>
       </c>
       <c r="J15">
-        <v>0.09235836531465817</v>
+        <v>0.02280567241823296</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N15">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O15">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P15">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q15">
-        <v>18.89971842354585</v>
+        <v>5.39403623081911</v>
       </c>
       <c r="R15">
-        <v>18.89971842354585</v>
+        <v>48.54632607737199</v>
       </c>
       <c r="S15">
-        <v>0.02277589725153099</v>
+        <v>0.005291305473995911</v>
       </c>
       <c r="T15">
-        <v>0.02277589725153099</v>
+        <v>0.005603285521852706</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1437943333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.431383</v>
+      </c>
+      <c r="I16">
+        <v>0.02214131876355931</v>
+      </c>
+      <c r="J16">
+        <v>0.02280567241823296</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.8762265</v>
+      </c>
+      <c r="N16">
+        <v>25.752453</v>
+      </c>
+      <c r="O16">
+        <v>0.08203059661736112</v>
+      </c>
+      <c r="P16">
+        <v>0.05622443917490542</v>
+      </c>
+      <c r="Q16">
+        <v>1.8515284054165</v>
+      </c>
+      <c r="R16">
+        <v>11.109170432499</v>
+      </c>
+      <c r="S16">
+        <v>0.001816265588069942</v>
+      </c>
+      <c r="T16">
+        <v>0.001282236141721758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.135131</v>
+      </c>
+      <c r="I17">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J17">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.211442</v>
+      </c>
+      <c r="N17">
+        <v>99.634326</v>
+      </c>
+      <c r="O17">
+        <v>0.211580186305583</v>
+      </c>
+      <c r="P17">
+        <v>0.2175281749633597</v>
+      </c>
+      <c r="Q17">
+        <v>18.849668684451</v>
+      </c>
+      <c r="R17">
+        <v>113.098012106706</v>
+      </c>
+      <c r="S17">
+        <v>0.01849067207283088</v>
+      </c>
+      <c r="T17">
+        <v>0.01305393229505811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.135131</v>
+      </c>
+      <c r="I18">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J18">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>51.17424933333334</v>
+      </c>
+      <c r="N18">
+        <v>153.522748</v>
+      </c>
+      <c r="O18">
+        <v>0.3260158715178649</v>
+      </c>
+      <c r="P18">
+        <v>0.3351809012869699</v>
+      </c>
+      <c r="Q18">
+        <v>29.044738409998</v>
+      </c>
+      <c r="R18">
+        <v>174.268430459988</v>
+      </c>
+      <c r="S18">
+        <v>0.02849157416880457</v>
+      </c>
+      <c r="T18">
+        <v>0.02011430837744883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.135131</v>
+      </c>
+      <c r="I19">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J19">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>22.19450366666666</v>
+      </c>
+      <c r="N19">
+        <v>66.58351099999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1413945597650736</v>
+      </c>
+      <c r="P19">
+        <v>0.1453694746776606</v>
+      </c>
+      <c r="Q19">
+        <v>12.5968345708235</v>
+      </c>
+      <c r="R19">
+        <v>75.58100742494099</v>
+      </c>
+      <c r="S19">
+        <v>0.01235692473454106</v>
+      </c>
+      <c r="T19">
+        <v>0.008723666626311664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.557265048993744</v>
-      </c>
-      <c r="H16">
-        <v>0.557265048993744</v>
-      </c>
-      <c r="I16">
-        <v>0.09235836531465817</v>
-      </c>
-      <c r="J16">
-        <v>0.09235836531465817</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>10.2817264273563</v>
-      </c>
-      <c r="N16">
-        <v>10.2817264273563</v>
-      </c>
-      <c r="O16">
-        <v>0.07476042696854827</v>
-      </c>
-      <c r="P16">
-        <v>0.07476042696854827</v>
-      </c>
-      <c r="Q16">
-        <v>5.729646781280981</v>
-      </c>
-      <c r="R16">
-        <v>5.729646781280981</v>
-      </c>
-      <c r="S16">
-        <v>0.006904750825041005</v>
-      </c>
-      <c r="T16">
-        <v>0.006904750825041005</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.135131</v>
+      </c>
+      <c r="I20">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J20">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>37.51216133333333</v>
+      </c>
+      <c r="N20">
+        <v>112.536484</v>
+      </c>
+      <c r="O20">
+        <v>0.2389787857941174</v>
+      </c>
+      <c r="P20">
+        <v>0.2456970098971044</v>
+      </c>
+      <c r="Q20">
+        <v>21.290608603234</v>
+      </c>
+      <c r="R20">
+        <v>127.743651619404</v>
+      </c>
+      <c r="S20">
+        <v>0.02088512368592105</v>
+      </c>
+      <c r="T20">
+        <v>0.01474435269286501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5675655000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.135131</v>
+      </c>
+      <c r="I21">
+        <v>0.08739321198122495</v>
+      </c>
+      <c r="J21">
+        <v>0.06001030577881189</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.8762265</v>
+      </c>
+      <c r="N21">
+        <v>25.752453</v>
+      </c>
+      <c r="O21">
+        <v>0.08203059661736112</v>
+      </c>
+      <c r="P21">
+        <v>0.05622443917490542</v>
+      </c>
+      <c r="Q21">
+        <v>7.308101931585751</v>
+      </c>
+      <c r="R21">
+        <v>29.23240772634301</v>
+      </c>
+      <c r="S21">
+        <v>0.007168917319127394</v>
+      </c>
+      <c r="T21">
+        <v>0.003374045787128284</v>
       </c>
     </row>
   </sheetData>
